--- a/output/17stycznia/2023/sheets/year_2023.xlsx
+++ b/output/17stycznia/2023/sheets/year_2023.xlsx
@@ -481,146 +481,124 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>42.4483870967742</v>
+        <v>47.76607333643006</v>
       </c>
       <c r="C2" t="n">
-        <v>44.01935483870968</v>
+        <v>45.68176485241351</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>42.03571428571428</v>
+        <v>45.69033800901121</v>
       </c>
       <c r="C3" t="n">
-        <v>42.06785714285714</v>
+        <v>45.98710128744607</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>46.16451612903226</v>
+        <v>48.19107441508626</v>
       </c>
       <c r="C4" t="n">
-        <v>48.12903225806453</v>
+        <v>48.96847849944159</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35.12</v>
+        <v>41.42966714920368</v>
       </c>
       <c r="C5" t="n">
-        <v>40.98666666666667</v>
+        <v>44.38639721603258</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.08387096774194</v>
+        <v>42.74174983957295</v>
       </c>
       <c r="C6" t="n">
-        <v>42.53225806451613</v>
+        <v>45.58398611506489</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.10666666666667</v>
+        <v>49.21909997768453</v>
       </c>
       <c r="C7" t="n">
-        <v>49.14666666666666</v>
+        <v>50.67760722936445</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.50645161290323</v>
+        <v>42.6945906046932</v>
       </c>
       <c r="C8" t="n">
-        <v>43.79677419354839</v>
+        <v>46.45770520076429</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.4032258064516</v>
+        <v>45.46305995390141</v>
       </c>
       <c r="C9" t="n">
-        <v>45.45161290322581</v>
+        <v>48.66674991719962</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A10" t="n">
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>46.64193548387097</v>
+        <v>48.40202453906367</v>
       </c>
       <c r="C10" t="n">
-        <v>48.62258064516129</v>
+        <v>49.20246168542698</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A11" t="n">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>47.08333333333334</v>
+        <v>49.64492671122376</v>
       </c>
       <c r="C11" t="n">
-        <v>45.00666666666666</v>
+        <v>49.14952697218788</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A12" t="n">
+        <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>46.81612903225806</v>
+        <v>49.00319994065657</v>
       </c>
       <c r="C12" t="n">
-        <v>47.55483870967741</v>
+        <v>48.57291625002568</v>
       </c>
     </row>
   </sheetData>
